--- a/data/10uM QP PPR trace_ Additional Analysis.xlsx
+++ b/data/10uM QP PPR trace_ Additional Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.72.18.38\Data folder\YELee\Maria Reva_Simulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reva/Documents/Python/SPSynapse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BB4D5-3E8B-462F-AB34-23289CD1155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21559056-AA01-DD47-B07D-5C105D77F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="690" windowWidth="18105" windowHeight="15510" xr2:uid="{1EF7CBA4-F09D-4C81-ABAC-40A71151C1BF}"/>
+    <workbookView xWindow="-44080" yWindow="4400" windowWidth="29060" windowHeight="17740" activeTab="4" xr2:uid="{1EF7CBA4-F09D-4C81-ABAC-40A71151C1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="PPR" sheetId="6" r:id="rId1"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Peak amplitude (pA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Baseline (15min)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +311,9 @@
   <si>
     <t>(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peak amplitude</t>
   </si>
 </sst>
 </file>
@@ -325,14 +324,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -350,7 +349,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -358,7 +357,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -367,7 +366,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -376,7 +375,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -397,7 +396,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -530,8 +529,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="메모" xfId="1" builtinId="10"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -596,7 +595,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,17 +913,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E7D020-FA95-4019-B60F-74B99CE461AA}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H17" zoomScale="169" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -953,10 +952,10 @@
         <v>74</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -970,7 +969,7 @@
         <v>1.987317</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9">
         <f>B2/B2*100</f>
@@ -988,10 +987,10 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1020,10 +1019,10 @@
         <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>123.58864586538387</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>187.97954197671888</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>190.90899600154509</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>123.87857739928785</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>239.09476484465193</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>200.27218134145315</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>65</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>102.27068314706536</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>132.36484247080182</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>126.77851568897837</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>61.588988751286678</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>155.43272415123954</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>63</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>82.882261621960382</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>64</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>101.69957208849527</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>137.0431591317313</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>74.000237236411465</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>147.47054841046753</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>70</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>120.72989205092048</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>76.364497545189707</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>160.90781078998464</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>100.52801893527838</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>16</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>75.337164065379199</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>87.576204806941249</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>66</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>286.74312914696543</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>237.65436869763136</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>68</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>101.60948204497761</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>69</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>105.18084908534324</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>73</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>34</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>113.04773510944005</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>98.42233118050892</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>36</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>139.20032609501223</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>98.488779275547856</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>38</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>141.58340779636944</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>108.32778380741534</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>128.18826102969899</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>71</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>69.35970440421714</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>72</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>163.92607236547963</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>43</v>
       </c>
@@ -2109,17 +2108,17 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>44</v>
@@ -2157,7 +2156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>-96.210956902339262</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>55</v>
@@ -2237,7 +2236,7 @@
         <v>-54.99798554182042</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>-70.797985204060694</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>-21.921470573970208</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>-10.8021873897976</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>-13.968032836914022</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>-46.779916551377987</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>-39.582094926100467</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>-35.529768092291654</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>1142.8979999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>476.6379</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>233.90350000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>-41.613185847247053</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>-32.250536370277366</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>-31.694056606292683</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>-52.867010078430127</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>-55.915164049933857</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>-34.131849323000168</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2797,7 +2796,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -2815,7 +2814,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -2827,7 +2826,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -2857,7 +2856,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -2869,7 +2868,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>-32.629643310200031</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>-14.155496817368695</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>-11.798398865593793</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -3001,7 +3000,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -3016,7 +3015,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -3028,10 +3027,10 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="2"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F41" s="2"/>
     </row>
   </sheetData>
@@ -3044,14 +3043,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B207FE91-F08A-4148-8142-F039956D5E26}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>44</v>
@@ -3089,7 +3090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>633.15150000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>264.31270000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>157.69040000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3143,7 +3144,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>89.171340000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>60.671990000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>-29.679951264308009</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>-22.034764480590781</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>-27.812624905790578</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>-47.893111705780001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>-28.531693458557086</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>-20.596678574879927</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>-36.629180844624791</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>-17.474290334261351</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>-13.483518604574501</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>-54.999183691464864</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>-41.370563864707904</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>-30.401440347943929</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>-32.571552973527133</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>-21.719365439916881</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>-18.816419251759815</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -3768,7 +3769,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>248.584</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>128.83539999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3808,7 +3809,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>242.32980000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>163.9888</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>952.5335</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -3862,7 +3863,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -3884,15 +3885,15 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>44</v>
@@ -3930,7 +3931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>-54.573445796966517</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>-30.441174173355051</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>-31.382834611115594</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>-52.138896465301443</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>-27.327313256263686</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>-23.583498398462897</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>-26.917767868041942</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>-13.721619658999938</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>-10.974127729733759</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>-11.424172533882977</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>-4.6700684374028949</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>-5.8281654675801509</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>-12.018181800842246</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>-4.888889829317713</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>-3.081061013539625</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>-37.060229102770428</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>-25.297561824321708</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>-14.513792548860794</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -4647,7 +4648,7 @@
       </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>348.13839530944762</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>103.25042593068063</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>-15.369892793543142</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>-6.8958531680859929</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>-4.3045226953647715</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>-29.100470310932838</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>-18.682439076273027</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>-11.931052419874376</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>-37.58360414845599</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>-21.403256479899049</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -5033,16 +5034,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E90AC-4AEB-4049-9047-DCFED66E57B5}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>33</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>44</v>
@@ -5080,7 +5081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>-8.351555061340326</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>-4.9003764932805787</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>-3.1742921850897998</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>167.60704153555349</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>157.77586191350713</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>-32.460231735592757</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>-21.433307280907236</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>-19.907634581838298</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>-6.0657304227352089</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>-6.8073467413584208</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>-4.1305404663085881</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>-40.505010566711391</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>-24.880548477172791</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>-12.279991443668068</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>-45.953057748300019</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>-25.714810106489359</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>-18.512411323460611</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>-22.951533568532795</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>-14.886184520191575</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>-5.7884384334087287</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>-29.189007111958055</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>-23.374350130557968</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>-18.920951021128655</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>-37.76384010314937</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>-18.127924138849377</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>-12.945539195691344</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>361.4446092085397</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>182.91012649536043</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>123.09162470499635</v>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N38" s="4"/>
     </row>
   </sheetData>
